--- a/ControlCambios/06_Implementacion/Implementacion_005.xlsx
+++ b/ControlCambios/06_Implementacion/Implementacion_005.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">ID: </t>
   </si>
   <si>
-    <t>Imp_001</t>
+    <t>Imp_005</t>
   </si>
   <si>
     <t>Fecha:</t>
   </si>
   <si>
+    <t>14/1/2024</t>
+  </si>
+  <si>
     <t>ID Documento base:</t>
   </si>
   <si>
-    <t>Plan_001</t>
+    <t>Plan_005</t>
   </si>
   <si>
     <t>Gerente del proyecto</t>
@@ -130,13 +133,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -731,31 +734,31 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -773,16 +776,16 @@
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
@@ -815,31 +818,31 @@
     <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
@@ -863,7 +866,7 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -875,13 +878,13 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -890,34 +893,34 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="36" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="36" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -939,7 +942,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1270,7 +1273,7 @@
     <col min="16" max="16" style="73" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1288,7 +1291,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1321,8 +1324,8 @@
       <c r="H3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="8">
-        <v>45323</v>
+      <c r="I3" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="1"/>
@@ -1336,13 +1339,13 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
@@ -1358,7 +1361,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="1"/>
@@ -1396,12 +1399,12 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -1418,12 +1421,12 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -1440,12 +1443,12 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -1480,7 +1483,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="20"/>
@@ -1519,11 +1522,11 @@
       <c r="B13" s="1"/>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -1541,11 +1544,11 @@
       <c r="B14" s="1"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -1563,11 +1566,11 @@
       <c r="B15" s="1"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1585,11 +1588,11 @@
       <c r="B16" s="1"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
@@ -1624,7 +1627,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="1"/>
@@ -1662,12 +1665,12 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="39"/>
       <c r="F20" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -1702,12 +1705,12 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="39"/>
       <c r="F22" s="27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -1743,11 +1746,11 @@
       <c r="B24" s="1"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
@@ -1800,12 +1803,12 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="39"/>
       <c r="F27" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
@@ -1858,7 +1861,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="58"/>
@@ -1914,7 +1917,7 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="67"/>
@@ -1922,7 +1925,7 @@
       <c r="G33" s="67"/>
       <c r="H33" s="67"/>
       <c r="I33" s="68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J33" s="69"/>
       <c r="K33" s="1"/>
@@ -1932,7 +1935,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
